--- a/analysis/MASTER_Clea_integrated.xlsx
+++ b/analysis/MASTER_Clea_integrated.xlsx
@@ -538,7 +538,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -625,7 +625,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -799,7 +799,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -886,7 +886,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -973,7 +973,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1147,7 +1147,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1234,7 +1234,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1321,7 +1321,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1495,7 +1495,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1582,7 +1582,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1669,7 +1669,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1843,7 +1843,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1934,7 +1934,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2021,7 +2021,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2108,7 +2108,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2195,7 +2195,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2282,7 +2282,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2369,7 +2369,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2456,7 +2456,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -4968,7 +4968,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -5084,7 +5084,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -5425,7 +5425,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5458,7 +5458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5491,7 +5491,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -5524,7 +5524,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5557,7 +5557,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5590,7 +5590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5623,7 +5623,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5656,7 +5656,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>エリア1</t>
+          <t>Area 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5689,7 +5689,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5722,7 +5722,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -5755,7 +5755,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -5788,7 +5788,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5821,7 +5821,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -5854,7 +5854,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>エリア2</t>
+          <t>Area 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5887,7 +5887,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5920,7 +5920,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>エリア3</t>
+          <t>Area 3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -5953,7 +5953,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5986,7 +5986,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -6019,7 +6019,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>エリア4</t>
+          <t>Area 4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -6052,7 +6052,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -6085,7 +6085,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>会議室</t>
+          <t>Meeting Room</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -6118,7 +6118,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -6151,7 +6151,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>休憩室</t>
+          <t>Break Room</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
